--- a/March_Madness2019.xlsx
+++ b/March_Madness2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjpeh\Documents\GitHub\MinneAnalytics\MinneAnalytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simbo/Desktop/MinneAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26260A68-4A87-465A-BD8D-D6DE075745A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5D532-0146-CD4F-8C12-C46A8233F430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="4" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="18000" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamIndex" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="142">
   <si>
     <t>Seed</t>
   </si>
@@ -195,48 +195,6 @@
     <t>ScoreDiff</t>
   </si>
   <si>
-    <t>PPG.For</t>
-  </si>
-  <si>
-    <t>PPG.Against</t>
-  </si>
-  <si>
-    <t>FGMade</t>
-  </si>
-  <si>
-    <t>FGAttempted</t>
-  </si>
-  <si>
-    <t>FG%.For</t>
-  </si>
-  <si>
-    <t>FG%.Agaisnt</t>
-  </si>
-  <si>
-    <t>ThreesMade</t>
-  </si>
-  <si>
-    <t>ThreesAttempted</t>
-  </si>
-  <si>
-    <t>Threes%.For</t>
-  </si>
-  <si>
-    <t>Threes%.Against</t>
-  </si>
-  <si>
-    <t>FreeThrowsMade</t>
-  </si>
-  <si>
-    <t>FreeThrowsAttempted</t>
-  </si>
-  <si>
-    <t>FreeThrowsAttempted.Against</t>
-  </si>
-  <si>
-    <t>FreeThrows%</t>
-  </si>
-  <si>
     <t>Adjusted.Efficiency.Margin</t>
   </si>
   <si>
@@ -511,6 +469,9 @@
   </si>
   <si>
     <t>Southland</t>
+  </si>
+  <si>
+    <t>SofS</t>
   </si>
 </sst>
 </file>
@@ -884,17 +845,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F220B1-F692-9F45-B093-D2157E7377AC}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -902,23 +863,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -926,23 +887,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -950,15 +911,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -966,39 +927,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1006,47 +967,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1054,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1062,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1070,39 +1031,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1110,7 +1071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1118,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1126,71 +1087,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1198,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1206,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1214,15 +1175,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1230,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1238,23 +1199,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1262,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1270,15 +1231,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1286,23 +1247,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1310,31 +1271,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1342,7 +1303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1350,95 +1311,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1457,15 +1418,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="6" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>63</v>
       </c>
@@ -1505,40 +1466,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C8978-FB06-1D45-95CB-A5CB586D8396}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="7.375" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="7.625" customWidth="1"/>
-    <col min="18" max="18" width="7.375" customWidth="1"/>
-    <col min="19" max="19" width="7.625" customWidth="1"/>
-    <col min="20" max="20" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
     <col min="21" max="22" width="7.5" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="7.125" customWidth="1"/>
+    <col min="24" max="24" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1567,52 +1528,10 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1620,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1641,8 +1560,11 @@
       <c r="I2" s="5">
         <v>0.8529411764705882</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J2" s="5">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1650,16 +1572,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">G3+H3</f>
+        <f>G3+H3</f>
         <v>34</v>
       </c>
       <c r="G3" s="5">
@@ -1671,8 +1593,11 @@
       <c r="I3" s="5">
         <v>0.82352941176470584</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1689,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>G4+H4</f>
         <v>32</v>
       </c>
       <c r="G4" s="5">
@@ -1701,8 +1626,11 @@
       <c r="I4" s="5">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J4" s="5">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1710,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1719,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>G5+H5</f>
         <v>32</v>
       </c>
       <c r="G5" s="5">
@@ -1731,8 +1659,11 @@
       <c r="I5" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1740,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1749,7 +1680,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>G6+H6</f>
         <v>33</v>
       </c>
       <c r="G6" s="5">
@@ -1761,8 +1692,11 @@
       <c r="I6" s="5">
         <v>0.69696969696969702</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1776,10 +1710,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>G7+H7</f>
         <v>32</v>
       </c>
       <c r="G7" s="5">
@@ -1791,8 +1725,11 @@
       <c r="I7" s="5">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1800,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1809,7 +1746,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>G8+H8</f>
         <v>33</v>
       </c>
       <c r="G8" s="5">
@@ -1821,8 +1758,11 @@
       <c r="I8" s="5">
         <v>0.60606060606060608</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1836,10 +1776,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>G9+H9</f>
         <v>32</v>
       </c>
       <c r="G9" s="5">
@@ -1851,8 +1791,11 @@
       <c r="I9" s="5">
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1860,16 +1803,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>G10+H10</f>
         <v>31</v>
       </c>
       <c r="G10" s="5">
@@ -1881,8 +1824,11 @@
       <c r="I10" s="5">
         <v>0.74193548387096775</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <v>-3.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1890,16 +1836,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>G11+H11</f>
         <v>34</v>
       </c>
       <c r="G11" s="5">
@@ -1911,8 +1857,11 @@
       <c r="I11" s="5">
         <v>0.61764705882352944</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1920,16 +1869,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>G12+H12</f>
         <v>32</v>
       </c>
       <c r="G12" s="5">
@@ -1941,8 +1890,11 @@
       <c r="I12" s="5">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1950,16 +1902,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>G13+H13</f>
         <v>31</v>
       </c>
       <c r="G13" s="5">
@@ -1971,8 +1923,11 @@
       <c r="I13" s="5">
         <v>0.83870967741935487</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" s="5">
+        <v>-1.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1986,10 +1941,10 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>G14+H14</f>
         <v>34</v>
       </c>
       <c r="G14" s="5">
@@ -2001,8 +1956,11 @@
       <c r="I14" s="5">
         <v>0.82352941176470584</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J14" s="5">
+        <v>-3.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2010,16 +1968,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>G15+H15</f>
         <v>35</v>
       </c>
       <c r="G15" s="5">
@@ -2031,8 +1989,11 @@
       <c r="I15" s="5">
         <v>0.65714285714285714</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J15" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2040,16 +2001,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f>G16+H16</f>
         <v>29</v>
       </c>
       <c r="G16" s="5">
@@ -2061,8 +2022,11 @@
       <c r="I16" s="5">
         <v>0.75862068965517238</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="5">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2070,16 +2034,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>G17+H17</f>
         <v>34</v>
       </c>
       <c r="G17" s="5">
@@ -2091,8 +2055,11 @@
       <c r="I17" s="5">
         <v>0.58823529411764708</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5">
+        <v>-1.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2100,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2109,7 +2076,7 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f>G18+H18</f>
         <v>33</v>
       </c>
       <c r="G18" s="5">
@@ -2121,8 +2088,11 @@
       <c r="I18" s="5">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5">
+        <v>-11.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2130,16 +2100,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f>G19+H19</f>
         <v>33</v>
       </c>
       <c r="G19" s="5">
@@ -2151,8 +2121,11 @@
       <c r="I19" s="5">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="5">
+        <v>-2.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2166,10 +2139,10 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f>G20+H20</f>
         <v>33</v>
       </c>
       <c r="G20" s="5">
@@ -2181,8 +2154,11 @@
       <c r="I20" s="5">
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="5">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2196,10 +2172,10 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f>G21+H21</f>
         <v>34</v>
       </c>
       <c r="G21" s="5">
@@ -2211,8 +2187,11 @@
       <c r="I21" s="5">
         <v>0.82352941176470584</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="5">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2226,10 +2205,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f>G22+H22</f>
         <v>32</v>
       </c>
       <c r="G22" s="5">
@@ -2241,8 +2220,11 @@
       <c r="I22" s="5">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="5">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2250,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -2259,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f>G23+H23</f>
         <v>34</v>
       </c>
       <c r="G23" s="5">
@@ -2271,8 +2253,11 @@
       <c r="I23" s="5">
         <v>0.79411764705882348</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="5">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2280,16 +2265,16 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f>G24+H24</f>
         <v>33</v>
       </c>
       <c r="G24" s="5">
@@ -2301,8 +2286,11 @@
       <c r="I24" s="5">
         <v>0.72727272727272729</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="5">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2310,16 +2298,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f>G25+H25</f>
         <v>34</v>
       </c>
       <c r="G25" s="5">
@@ -2331,8 +2319,11 @@
       <c r="I25" s="5">
         <v>0.91176470588235292</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="5">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2340,16 +2331,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f>G26+H26</f>
         <v>33</v>
       </c>
       <c r="G26" s="5">
@@ -2361,8 +2352,11 @@
       <c r="I26" s="5">
         <v>0.87878787878787878</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2379,7 +2373,7 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f>G27+H27</f>
         <v>33</v>
       </c>
       <c r="G27" s="5">
@@ -2391,8 +2385,11 @@
       <c r="I27" s="5">
         <v>0.60606060606060608</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2406,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f>G28+H28</f>
         <v>32</v>
       </c>
       <c r="G28" s="5">
@@ -2421,8 +2418,11 @@
       <c r="I28" s="5">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="5">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>37</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>G29+H29</f>
         <v>34</v>
       </c>
       <c r="G29" s="5">
@@ -2451,8 +2451,11 @@
       <c r="I29" s="5">
         <v>0.55882352941176472</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2460,16 +2463,16 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f>G30+H30</f>
         <v>32</v>
       </c>
       <c r="G30" s="5">
@@ -2481,8 +2484,11 @@
       <c r="I30" s="5">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="5">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2490,16 +2496,16 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f>G31+H31</f>
         <v>33</v>
       </c>
       <c r="G31" s="5">
@@ -2511,8 +2517,11 @@
       <c r="I31" s="5">
         <v>0.63636363636363635</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2521,16 +2530,16 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f>G32+H32</f>
         <v>31</v>
       </c>
       <c r="G32" s="5">
@@ -2542,26 +2551,29 @@
       <c r="I32" s="5">
         <v>0.87096774193548387</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="5">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B36" si="1">B32+1</f>
+        <f>B32+1</f>
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f>G33+H33</f>
         <v>33</v>
       </c>
       <c r="G33" s="5">
@@ -2573,26 +2585,29 @@
       <c r="I33" s="5">
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="5">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f>B33+1</f>
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f>G34+H34</f>
         <v>34</v>
       </c>
       <c r="G34" s="5">
@@ -2604,26 +2619,29 @@
       <c r="I34" s="5">
         <v>0.76470588235294112</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="5">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f>B34+1</f>
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f>G35+H35</f>
         <v>34</v>
       </c>
       <c r="G35" s="5">
@@ -2635,26 +2653,29 @@
       <c r="I35" s="5">
         <v>0.76470588235294112</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="5">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f>B35+1</f>
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f>G36+H36</f>
         <v>33</v>
       </c>
       <c r="G36" s="5">
@@ -2666,8 +2687,11 @@
       <c r="I36" s="5">
         <v>0.60606060606060608</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="5">
+        <v>-8.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -2684,7 +2708,7 @@
         <v>41</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f>G37+H37</f>
         <v>34</v>
       </c>
       <c r="G37" s="5">
@@ -2696,8 +2720,11 @@
       <c r="I37" s="5">
         <v>0.6470588235294118</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="5">
+        <v>-7.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2714,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f>G38+H38</f>
         <v>32</v>
       </c>
       <c r="G38" s="5">
@@ -2726,8 +2753,11 @@
       <c r="I38" s="5">
         <v>0.90625</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="5">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2745,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f>G39+H39</f>
         <v>34</v>
       </c>
       <c r="G39" s="5">
@@ -2757,13 +2787,16 @@
       <c r="I39" s="5">
         <v>0.8529411764705882</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="5">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:B53" si="2">B39+1</f>
+        <f>B39+1</f>
         <v>3</v>
       </c>
       <c r="C40" t="s">
@@ -2773,10 +2806,10 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f>G40+H40</f>
         <v>32</v>
       </c>
       <c r="G40" s="5">
@@ -2788,26 +2821,29 @@
       <c r="I40" s="5">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="5">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f>B40+1</f>
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f>G41+H41</f>
         <v>33</v>
       </c>
       <c r="G41" s="5">
@@ -2819,13 +2855,16 @@
       <c r="I41" s="5">
         <v>0.75757575757575757</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="5">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f>B41+1</f>
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2835,10 +2874,10 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f>G42+H42</f>
         <v>33</v>
       </c>
       <c r="G42" s="5">
@@ -2850,13 +2889,16 @@
       <c r="I42" s="5">
         <v>0.69696969696969702</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="5">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f>B42+1</f>
         <v>6</v>
       </c>
       <c r="C43" t="s">
@@ -2866,10 +2908,10 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f>G43+H43</f>
         <v>34</v>
       </c>
       <c r="G43" s="5">
@@ -2881,26 +2923,29 @@
       <c r="I43" s="5">
         <v>0.73529411764705888</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="5">
+        <v>-5.55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f>B43+1</f>
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f>G44+H44</f>
         <v>34</v>
       </c>
       <c r="G44" s="5">
@@ -2912,17 +2957,20 @@
       <c r="I44" s="5">
         <v>0.82352941176470584</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="5">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f>B44+1</f>
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2931,7 +2979,7 @@
         <v>37</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f>G45+H45</f>
         <v>32</v>
       </c>
       <c r="G45" s="5">
@@ -2943,13 +2991,16 @@
       <c r="I45" s="5">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="5">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f>B45+1</f>
         <v>9</v>
       </c>
       <c r="C46" t="s">
@@ -2959,10 +3010,10 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f>G46+H46</f>
         <v>32</v>
       </c>
       <c r="G46" s="5">
@@ -2974,13 +3025,16 @@
       <c r="I46" s="5">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="5">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f>B46+1</f>
         <v>10</v>
       </c>
       <c r="C47" t="s">
@@ -2990,10 +3044,10 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f>G47+H47</f>
         <v>33</v>
       </c>
       <c r="G47" s="5">
@@ -3005,26 +3059,29 @@
       <c r="I47" s="5">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="5">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f>B47+1</f>
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f>G48+H48</f>
         <v>33</v>
       </c>
       <c r="G48" s="5">
@@ -3036,13 +3093,16 @@
       <c r="I48" s="5">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="5">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f>B48+1</f>
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -3052,10 +3112,10 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f>G49+H49</f>
         <v>35</v>
       </c>
       <c r="G49" s="5">
@@ -3067,26 +3127,29 @@
       <c r="I49" s="5">
         <v>0.65714285714285714</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="5">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f>B49+1</f>
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f>G50+H50</f>
         <v>35</v>
       </c>
       <c r="G50" s="5">
@@ -3098,26 +3161,29 @@
       <c r="I50" s="5">
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="5">
+        <v>-3.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f>B50+1</f>
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f>G51+H51</f>
         <v>34</v>
       </c>
       <c r="G51" s="5">
@@ -3129,13 +3195,16 @@
       <c r="I51" s="5">
         <v>0.76470588235294112</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="5">
+        <v>-2.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f>B51+1</f>
         <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -3145,10 +3214,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f>G52+H52</f>
         <v>34</v>
       </c>
       <c r="G52" s="5">
@@ -3160,26 +3229,29 @@
       <c r="I52" s="5">
         <v>0.70588235294117652</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="5">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f>B52+1</f>
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f>G53+H53</f>
         <v>34</v>
       </c>
       <c r="G53" s="5">
@@ -3191,8 +3263,11 @@
       <c r="I53" s="5">
         <v>0.67647058823529416</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="5">
+        <v>-3.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3200,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3209,7 +3284,7 @@
         <v>36</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f>G54+H54</f>
         <v>33</v>
       </c>
       <c r="G54" s="5">
@@ -3221,8 +3296,11 @@
       <c r="I54" s="5">
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="5">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3230,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -3239,7 +3317,7 @@
         <v>37</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f>G55+H55</f>
         <v>33</v>
       </c>
       <c r="G55" s="5">
@@ -3251,8 +3329,11 @@
       <c r="I55" s="5">
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="5">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3266,10 +3347,10 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f>G56+H56</f>
         <v>34</v>
       </c>
       <c r="G56" s="5">
@@ -3281,8 +3362,11 @@
       <c r="I56" s="5">
         <v>0.91176470588235292</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="5">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3296,10 +3380,10 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f>G57+H57</f>
         <v>34</v>
       </c>
       <c r="G57" s="5">
@@ -3311,8 +3395,11 @@
       <c r="I57" s="5">
         <v>0.73529411764705888</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="5">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3320,7 +3407,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3329,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f>G58+H58</f>
         <v>35</v>
       </c>
       <c r="G58" s="5">
@@ -3341,8 +3428,11 @@
       <c r="I58" s="5">
         <v>0.74285714285714288</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="5">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3350,16 +3440,16 @@
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f>G59+H59</f>
         <v>34</v>
       </c>
       <c r="G59" s="5">
@@ -3371,8 +3461,11 @@
       <c r="I59" s="5">
         <v>0.67647058823529416</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="5">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3380,16 +3473,16 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f>G60+H60</f>
         <v>33</v>
       </c>
       <c r="G60" s="5">
@@ -3401,8 +3494,11 @@
       <c r="I60" s="5">
         <v>0.87878787878787878</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="5">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3410,16 +3506,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f>G61+H61</f>
         <v>34</v>
       </c>
       <c r="G61" s="5">
@@ -3431,8 +3527,11 @@
       <c r="I61" s="5">
         <v>0.82352941176470584</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="5">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3440,16 +3539,16 @@
         <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f>G62+H62</f>
         <v>34</v>
       </c>
       <c r="G62" s="5">
@@ -3461,8 +3560,11 @@
       <c r="I62" s="5">
         <v>0.76470588235294112</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="5">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3470,16 +3572,16 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f>G63+H63</f>
         <v>33</v>
       </c>
       <c r="G63" s="5">
@@ -3491,8 +3593,11 @@
       <c r="I63" s="5">
         <v>0.60606060606060608</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="5">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3500,16 +3605,16 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f>G64+H64</f>
         <v>33</v>
       </c>
       <c r="G64" s="5">
@@ -3521,8 +3626,11 @@
       <c r="I64" s="5">
         <v>0.5757575757575758</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="5">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3530,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -3539,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f>G65+H65</f>
         <v>34</v>
       </c>
       <c r="G65" s="5">
@@ -3551,8 +3659,11 @@
       <c r="I65" s="5">
         <v>0.88235294117647056</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="5">
+        <v>-3.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3560,16 +3671,16 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f>G66+H66</f>
         <v>33</v>
       </c>
       <c r="G66" s="5">
@@ -3581,8 +3692,11 @@
       <c r="I66" s="5">
         <v>0.69696969696969702</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="5">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3590,16 +3704,16 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F69" si="3">G67+H67</f>
+        <f>G67+H67</f>
         <v>33</v>
       </c>
       <c r="G67" s="5">
@@ -3611,8 +3725,11 @@
       <c r="I67" s="5">
         <v>0.72727272727272729</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3620,16 +3737,16 @@
         <v>15</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f>G68+H68</f>
         <v>33</v>
       </c>
       <c r="G68" s="5">
@@ -3641,8 +3758,11 @@
       <c r="I68" s="5">
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="5">
+        <v>-8.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3659,7 +3779,7 @@
         <v>40</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f>G69+H69</f>
         <v>32</v>
       </c>
       <c r="G69" s="5">
@@ -3671,10 +3791,13 @@
       <c r="I69" s="5">
         <v>0.53125</v>
       </c>
+      <c r="J69" s="5">
+        <v>-6.27</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X234">
-    <sortCondition ref="A2:A234"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J69">
+    <sortCondition ref="A1:A69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3688,12 +3811,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3701,393 +3824,393 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
         <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4108,29 +4231,29 @@
       <selection activeCell="A2" sqref="A2:G266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>48</v>
@@ -4145,18 +4268,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FA2D8-D9F1-E142-A72C-DC00F72930D8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4176,7 +4299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4184,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -4193,7 +4316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4210,7 +4333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4227,7 +4350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4244,7 +4367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4261,7 +4384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4278,7 +4401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4295,7 +4418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4312,7 +4435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4329,7 +4452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4346,7 +4469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4363,7 +4486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4380,7 +4503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4397,7 +4520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4414,7 +4537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4431,7 +4554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4448,7 +4571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4466,7 +4589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4485,7 +4608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4504,7 +4627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4523,7 +4646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4542,7 +4665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4561,7 +4684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4580,7 +4703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4598,7 +4721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4615,7 +4738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4632,7 +4755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4649,7 +4772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4666,7 +4789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4683,7 +4806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4700,7 +4823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4717,7 +4840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4747,18 +4870,18 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4783,7 +4906,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>33</v>
       </c>
@@ -4802,7 +4925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>34</v>
       </c>
@@ -4821,7 +4944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>35</v>
       </c>
@@ -4840,7 +4963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>36</v>
       </c>
@@ -4859,7 +4982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>37</v>
       </c>
@@ -4878,7 +5001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -4897,7 +5020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39</v>
       </c>
@@ -4916,7 +5039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
@@ -4935,7 +5058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41</v>
       </c>
@@ -4954,7 +5077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>42</v>
       </c>
@@ -4973,7 +5096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>43</v>
       </c>
@@ -4992,7 +5115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>44</v>
       </c>
@@ -5011,7 +5134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>45</v>
       </c>
@@ -5030,7 +5153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>46</v>
       </c>
@@ -5049,7 +5172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>47</v>
       </c>
@@ -5068,7 +5191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>48</v>
       </c>
@@ -5100,18 +5223,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -5136,7 +5259,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>49</v>
       </c>
@@ -5155,7 +5278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50</v>
       </c>
@@ -5174,7 +5297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>51</v>
       </c>
@@ -5193,7 +5316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>52</v>
       </c>
@@ -5212,7 +5335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>53</v>
       </c>
@@ -5231,7 +5354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>54</v>
       </c>
@@ -5250,7 +5373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
@@ -5269,7 +5392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>56</v>
       </c>
@@ -5301,16 +5424,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -5330,7 +5453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>57</v>
       </c>
@@ -5349,7 +5472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>58</v>
       </c>
@@ -5368,7 +5491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>59</v>
       </c>
@@ -5387,7 +5510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -5417,15 +5540,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -5445,7 +5568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
@@ -5461,7 +5584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>62</v>
       </c>

--- a/March_Madness2019.xlsx
+++ b/March_Madness2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simbo/Desktop/MinneAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5D532-0146-CD4F-8C12-C46A8233F430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340332F4-8FE6-DB4F-A1AD-43512235EB51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="18000" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14000" windowHeight="18000" tabRatio="1000" activeTab="1" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamIndex" sheetId="12" r:id="rId1"/>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F220B1-F692-9F45-B093-D2157E7377AC}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C8978-FB06-1D45-95CB-A5CB586D8396}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1548,7 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <f>G2+H2</f>
+        <f t="shared" ref="F2:F33" si="0">G2+H2</f>
         <v>34</v>
       </c>
       <c r="G2" s="5">
@@ -1581,7 +1581,7 @@
         <v>115</v>
       </c>
       <c r="F3">
-        <f>G3+H3</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G3" s="5">
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <f>G4+H4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G4" s="5">
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <f>G5+H5</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G5" s="5">
@@ -1680,7 +1680,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <f>G6+H6</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G6" s="5">
@@ -1713,7 +1713,7 @@
         <v>115</v>
       </c>
       <c r="F7">
-        <f>G7+H7</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G7" s="5">
@@ -1746,7 +1746,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <f>G8+H8</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G8" s="5">
@@ -1779,7 +1779,7 @@
         <v>116</v>
       </c>
       <c r="F9">
-        <f>G9+H9</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G9" s="5">
@@ -1812,7 +1812,7 @@
         <v>117</v>
       </c>
       <c r="F10">
-        <f>G10+H10</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G10" s="5">
@@ -1845,7 +1845,7 @@
         <v>115</v>
       </c>
       <c r="F11">
-        <f>G11+H11</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G11" s="5">
@@ -1878,7 +1878,7 @@
         <v>117</v>
       </c>
       <c r="F12">
-        <f>G12+H12</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G12" s="5">
@@ -1911,7 +1911,7 @@
         <v>118</v>
       </c>
       <c r="F13">
-        <f>G13+H13</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G13" s="5">
@@ -1944,7 +1944,7 @@
         <v>119</v>
       </c>
       <c r="F14">
-        <f>G14+H14</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G14" s="5">
@@ -1977,7 +1977,7 @@
         <v>116</v>
       </c>
       <c r="F15">
-        <f>G15+H15</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G15" s="5">
@@ -2010,7 +2010,7 @@
         <v>120</v>
       </c>
       <c r="F16">
-        <f>G16+H16</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G16" s="5">
@@ -2043,7 +2043,7 @@
         <v>121</v>
       </c>
       <c r="F17">
-        <f>G17+H17</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G17" s="5">
@@ -2076,7 +2076,7 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <f>G18+H18</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G18" s="5">
@@ -2109,7 +2109,7 @@
         <v>122</v>
       </c>
       <c r="F19">
-        <f>G19+H19</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G19" s="5">
@@ -2142,7 +2142,7 @@
         <v>123</v>
       </c>
       <c r="F20">
-        <f>G20+H20</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G20" s="5">
@@ -2175,7 +2175,7 @@
         <v>115</v>
       </c>
       <c r="F21">
-        <f>G21+H21</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G21" s="5">
@@ -2208,7 +2208,7 @@
         <v>124</v>
       </c>
       <c r="F22">
-        <f>G22+H22</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G22" s="5">
@@ -2241,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <f>G23+H23</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G23" s="5">
@@ -2274,7 +2274,7 @@
         <v>125</v>
       </c>
       <c r="F24">
-        <f>G24+H24</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G24" s="5">
@@ -2307,7 +2307,7 @@
         <v>126</v>
       </c>
       <c r="F25">
-        <f>G25+H25</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G25" s="5">
@@ -2340,7 +2340,7 @@
         <v>127</v>
       </c>
       <c r="F26">
-        <f>G26+H26</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G26" s="5">
@@ -2373,7 +2373,7 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <f>G27+H27</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G27" s="5">
@@ -2406,7 +2406,7 @@
         <v>124</v>
       </c>
       <c r="F28">
-        <f>G28+H28</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G28" s="5">
@@ -2439,7 +2439,7 @@
         <v>37</v>
       </c>
       <c r="F29">
-        <f>G29+H29</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G29" s="5">
@@ -2472,7 +2472,7 @@
         <v>128</v>
       </c>
       <c r="F30">
-        <f>G30+H30</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G30" s="5">
@@ -2505,7 +2505,7 @@
         <v>125</v>
       </c>
       <c r="F31">
-        <f>G31+H31</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G31" s="5">
@@ -2539,7 +2539,7 @@
         <v>118</v>
       </c>
       <c r="F32">
-        <f>G32+H32</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G32" s="5">
@@ -2573,7 +2573,7 @@
         <v>129</v>
       </c>
       <c r="F33">
-        <f>G33+H33</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G33" s="5">
@@ -2607,7 +2607,7 @@
         <v>130</v>
       </c>
       <c r="F34">
-        <f>G34+H34</f>
+        <f t="shared" ref="F34:F65" si="1">G34+H34</f>
         <v>34</v>
       </c>
       <c r="G34" s="5">
@@ -2641,7 +2641,7 @@
         <v>131</v>
       </c>
       <c r="F35">
-        <f>G35+H35</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G35" s="5">
@@ -2675,7 +2675,7 @@
         <v>132</v>
       </c>
       <c r="F36">
-        <f>G36+H36</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G36" s="5">
@@ -2708,7 +2708,7 @@
         <v>41</v>
       </c>
       <c r="F37">
-        <f>G37+H37</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G37" s="5">
@@ -2741,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="F38">
-        <f>G38+H38</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G38" s="5">
@@ -2762,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>B38+1</f>
+        <f t="shared" ref="B39:B53" si="2">B38+1</f>
         <v>2</v>
       </c>
       <c r="C39" t="s">
@@ -2775,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="F39">
-        <f>G39+H39</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G39" s="5">
@@ -2796,7 +2796,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>B39+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C40" t="s">
@@ -2809,7 +2809,7 @@
         <v>115</v>
       </c>
       <c r="F40">
-        <f>G40+H40</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G40" s="5">
@@ -2830,7 +2830,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>B40+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C41" t="s">
@@ -2843,7 +2843,7 @@
         <v>124</v>
       </c>
       <c r="F41">
-        <f>G41+H41</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G41" s="5">
@@ -2864,7 +2864,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>B41+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2877,7 +2877,7 @@
         <v>115</v>
       </c>
       <c r="F42">
-        <f>G42+H42</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G42" s="5">
@@ -2898,7 +2898,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>B42+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C43" t="s">
@@ -2911,7 +2911,7 @@
         <v>125</v>
       </c>
       <c r="F43">
-        <f>G43+H43</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G43" s="5">
@@ -2932,7 +2932,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>B43+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2945,7 +2945,7 @@
         <v>117</v>
       </c>
       <c r="F44">
-        <f>G44+H44</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G44" s="5">
@@ -2966,7 +2966,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>B44+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -2979,7 +2979,7 @@
         <v>37</v>
       </c>
       <c r="F45">
-        <f>G45+H45</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G45" s="5">
@@ -2992,7 +2992,7 @@
         <v>0.625</v>
       </c>
       <c r="J45" s="5">
-        <v>10.09</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3000,7 +3000,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>B45+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C46" t="s">
@@ -3013,7 +3013,7 @@
         <v>124</v>
       </c>
       <c r="F46">
-        <f>G46+H46</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G46" s="5">
@@ -3034,7 +3034,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>B46+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C47" t="s">
@@ -3047,7 +3047,7 @@
         <v>115</v>
       </c>
       <c r="F47">
-        <f>G47+H47</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G47" s="5">
@@ -3068,7 +3068,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>B47+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C48" t="s">
@@ -3081,7 +3081,7 @@
         <v>123</v>
       </c>
       <c r="F48">
-        <f>G48+H48</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G48" s="5">
@@ -3102,7 +3102,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>B48+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -3115,7 +3115,7 @@
         <v>128</v>
       </c>
       <c r="F49">
-        <f>G49+H49</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="G49" s="5">
@@ -3136,7 +3136,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>B49+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -3149,7 +3149,7 @@
         <v>133</v>
       </c>
       <c r="F50">
-        <f>G50+H50</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="G50" s="5">
@@ -3170,7 +3170,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>B50+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C51" t="s">
@@ -3183,7 +3183,7 @@
         <v>134</v>
       </c>
       <c r="F51">
-        <f>G51+H51</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G51" s="5">
@@ -3204,7 +3204,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>B51+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -3217,7 +3217,7 @@
         <v>135</v>
       </c>
       <c r="F52">
-        <f>G52+H52</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G52" s="5">
@@ -3238,7 +3238,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>B52+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -3251,7 +3251,7 @@
         <v>136</v>
       </c>
       <c r="F53">
-        <f>G53+H53</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G53" s="5">
@@ -3284,7 +3284,7 @@
         <v>36</v>
       </c>
       <c r="F54">
-        <f>G54+H54</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G54" s="5">
@@ -3317,7 +3317,7 @@
         <v>37</v>
       </c>
       <c r="F55">
-        <f>G55+H55</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G55" s="5">
@@ -3350,7 +3350,7 @@
         <v>117</v>
       </c>
       <c r="F56">
-        <f>G56+H56</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G56" s="5">
@@ -3383,7 +3383,7 @@
         <v>124</v>
       </c>
       <c r="F57">
-        <f>G57+H57</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G57" s="5">
@@ -3416,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="F58">
-        <f>G58+H58</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="G58" s="5">
@@ -3449,7 +3449,7 @@
         <v>124</v>
       </c>
       <c r="F59">
-        <f>G59+H59</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G59" s="5">
@@ -3482,7 +3482,7 @@
         <v>137</v>
       </c>
       <c r="F60">
-        <f>G60+H60</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G60" s="5">
@@ -3515,7 +3515,7 @@
         <v>127</v>
       </c>
       <c r="F61">
-        <f>G61+H61</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G61" s="5">
@@ -3548,7 +3548,7 @@
         <v>128</v>
       </c>
       <c r="F62">
-        <f>G62+H62</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G62" s="5">
@@ -3581,7 +3581,7 @@
         <v>125</v>
       </c>
       <c r="F63">
-        <f>G63+H63</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G63" s="5">
@@ -3614,7 +3614,7 @@
         <v>115</v>
       </c>
       <c r="F64">
-        <f>G64+H64</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G64" s="5">
@@ -3647,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="F65">
-        <f>G65+H65</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G65" s="5">
@@ -3680,7 +3680,7 @@
         <v>138</v>
       </c>
       <c r="F66">
-        <f>G66+H66</f>
+        <f t="shared" ref="F66:F97" si="3">G66+H66</f>
         <v>33</v>
       </c>
       <c r="G66" s="5">
@@ -3713,7 +3713,7 @@
         <v>139</v>
       </c>
       <c r="F67">
-        <f>G67+H67</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G67" s="5">
@@ -3746,7 +3746,7 @@
         <v>140</v>
       </c>
       <c r="F68">
-        <f>G68+H68</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G68" s="5">
@@ -3779,7 +3779,7 @@
         <v>40</v>
       </c>
       <c r="F69">
-        <f>G69+H69</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="G69" s="5">
@@ -5421,7 +5421,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5488,7 +5488,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
